--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_4_black_flies_lab_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_4_black_flies_lab_jig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29CB05-78E6-4579-9B4A-992C1F640B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBE13B-B7F5-4CE5-B5EE-244A8D9AF0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -139,15 +139,6 @@
     <t>select_pool_months</t>
   </si>
   <si>
-    <t>pools_positive</t>
-  </si>
-  <si>
-    <t>pools_negative</t>
-  </si>
-  <si>
-    <t>pools_less_100</t>
-  </si>
-  <si>
     <t>pools_count</t>
   </si>
   <si>
@@ -280,42 +271,12 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>${pools_positive}</t>
-  </si>
-  <si>
-    <t>pools_positive_name</t>
-  </si>
-  <si>
-    <t>pools_positive_result</t>
-  </si>
-  <si>
-    <t>pools_positive_size</t>
-  </si>
-  <si>
-    <t>pools_positive_test_type</t>
-  </si>
-  <si>
     <t>PCR</t>
   </si>
   <si>
     <t>end repeat</t>
   </si>
   <si>
-    <t>pools_negative_name</t>
-  </si>
-  <si>
-    <t>pools_negative_result</t>
-  </si>
-  <si>
-    <t>pools_negative_size</t>
-  </si>
-  <si>
-    <t>pools_negative_test_type</t>
-  </si>
-  <si>
-    <t>${pools_negative}</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -349,24 +310,12 @@
     <t>Size</t>
   </si>
   <si>
-    <t>${pools_positive} &gt; 0</t>
-  </si>
-  <si>
-    <t>${pools_negative} &gt; 0</t>
-  </si>
-  <si>
     <t>select_multiple month</t>
   </si>
   <si>
     <t>Pools less than 100</t>
   </si>
   <si>
-    <t>${pools_less_100} &gt; 0</t>
-  </si>
-  <si>
-    <t>${pools_less_100}</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -376,9 +325,6 @@
     <t>concat(${select_pool_months}, " ", "pos pool", " ", (position(..) + 1))</t>
   </si>
   <si>
-    <t>pools_less_100_name</t>
-  </si>
-  <si>
     <t>concat(${select_pool_months}, " ", "less than 100 pool", " ", (position(..) + 1))</t>
   </si>
   <si>
@@ -413,12 +359,6 @@
   </si>
   <si>
     <t>positive_count</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_negative}) + ${pools_negative}</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_positive}) + ${pools_positive}</t>
   </si>
   <si>
     <t>Months of Fly Collection: **${select_pool_months}**
@@ -435,18 +375,6 @@
     <t>select_one type_test</t>
   </si>
   <si>
-    <t>pools_less_100_test_type</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_positive_name}**</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_negative_name}**</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_less_100_name}**</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -480,21 +408,6 @@
     <t>community = ${lbl_village_community}</t>
   </si>
   <si>
-    <t>ng_oncho_2408_4_b_flies_lab_jig</t>
-  </si>
-  <si>
-    <t>pools_positive_details_jig</t>
-  </si>
-  <si>
-    <t>pools_negative_details_jig</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_jig</t>
-  </si>
-  <si>
-    <t>(Jigawa) 4. Blackfly Lab App</t>
-  </si>
-  <si>
     <t>JIGAWA</t>
   </si>
   <si>
@@ -550,6 +463,147 @@
   </si>
   <si>
     <t>JIG_GAR_A_024</t>
+  </si>
+  <si>
+    <t>(Jigawa) 4. Blackfly Lab App V2</t>
+  </si>
+  <si>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
+  </si>
+  <si>
+    <t>pools_pos</t>
+  </si>
+  <si>
+    <t>${pools_pos} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_pos}</t>
+  </si>
+  <si>
+    <t>pools_pos_name</t>
+  </si>
+  <si>
+    <t>pools_pos_result</t>
+  </si>
+  <si>
+    <t>pools_pos_size</t>
+  </si>
+  <si>
+    <t>pools_pos_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_pos_name}**</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_positive}) + ${pools_pos}</t>
+  </si>
+  <si>
+    <t>pools_pos_details_jig2</t>
+  </si>
+  <si>
+    <t>pools_neg</t>
+  </si>
+  <si>
+    <t>${pools_neg} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_neg_name</t>
+  </si>
+  <si>
+    <t>pools_neg_result</t>
+  </si>
+  <si>
+    <t>pools_neg_size</t>
+  </si>
+  <si>
+    <t>pools_neg_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_neg_name}**</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_negative}) + ${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_neg_details_jig2</t>
+  </si>
+  <si>
+    <t>pools_l_100</t>
+  </si>
+  <si>
+    <t>${pools_l_100} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_l_100}</t>
+  </si>
+  <si>
+    <t>pools_l_100_name</t>
+  </si>
+  <si>
+    <t>pools_l_100_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_l_100_name}**</t>
+  </si>
+  <si>
+    <t>pools_l_100_details_jig2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_4_b_lab_jig_v2</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1161,18 +1215,18 @@
         <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
@@ -1188,13 +1242,13 @@
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1207,19 +1261,19 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1232,19 +1286,19 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1260,13 +1314,13 @@
     </row>
     <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1282,13 +1336,13 @@
     </row>
     <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1304,13 +1358,13 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
@@ -1323,19 +1377,19 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="10" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -1354,10 +1408,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1373,20 +1427,20 @@
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1394,18 +1448,18 @@
       <c r="L11" s="21"/>
       <c r="M11" s="18"/>
       <c r="N11" s="21" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -1413,7 +1467,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1421,13 +1475,13 @@
     </row>
     <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -1435,23 +1489,23 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
@@ -1469,13 +1523,13 @@
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1491,7 +1545,7 @@
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1512,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
@@ -1531,20 +1585,20 @@
     </row>
     <row r="18" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1552,18 +1606,18 @@
       <c r="L18" s="21"/>
       <c r="M18" s="18"/>
       <c r="N18" s="21" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
@@ -1571,7 +1625,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1579,13 +1633,13 @@
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1593,23 +1647,23 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
@@ -1627,13 +1681,13 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
@@ -1649,7 +1703,7 @@
     </row>
     <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1670,10 +1724,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1689,20 +1743,20 @@
     </row>
     <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1710,18 +1764,18 @@
       <c r="L25" s="21"/>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1729,7 +1783,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1737,13 +1791,13 @@
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -1762,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
@@ -1781,13 +1835,13 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7"/>
@@ -1803,10 +1857,10 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1815,7 +1869,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1823,10 +1877,10 @@
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1835,7 +1889,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1843,7 +1897,7 @@
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -1861,10 +1915,10 @@
     </row>
     <row r="33" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1873,7 +1927,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -1881,10 +1935,10 @@
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1893,7 +1947,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -1901,13 +1955,13 @@
     </row>
     <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="7"/>
@@ -1923,13 +1977,13 @@
     </row>
     <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="7"/>
@@ -1948,10 +2002,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="7"/>
@@ -1960,20 +2014,20 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K37" s="7"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18"/>
@@ -1989,21 +2043,21 @@
     </row>
     <row r="39" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2062,8 +2116,8 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD47"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2084,13 +2138,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,200 +2182,200 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,416 +2384,587 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C49" s="23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C50" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2819,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2844,10 +3069,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
